--- a/7个4.9G站点.xlsx
+++ b/7个4.9G站点.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - bupt.edu.cn\桌面\中国移动研究院\外场测试数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - bupt.edu.cn\桌面\中国移动研究院\仿真平台\LTE干扰UAV仿真预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26FF7A9-7176-4527-8AC7-78A71940D4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1B93DA-AC7B-4FC2-90C1-73CDE37C8012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,8 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -431,7 +429,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,6 +439,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,7 +463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -470,6 +474,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -741,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AT2" sqref="AT2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -753,10 +760,15 @@
     <col min="6" max="6" width="30.26953125" customWidth="1"/>
     <col min="7" max="7" width="24.36328125" customWidth="1"/>
     <col min="8" max="8" width="23.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.81640625" customWidth="1"/>
     <col min="15" max="15" width="18.453125" customWidth="1"/>
     <col min="16" max="16" width="17.6328125" customWidth="1"/>
+    <col min="17" max="18" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.08984375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -943,10 +955,10 @@
       <c r="H2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>119.84981000000001</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>31.711099999999998</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1087,10 +1099,10 @@
       <c r="H3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>119.84981000000001</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>31.711099999999998</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -1231,10 +1243,10 @@
       <c r="H4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>119.84981000000001</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>31.711099999999998</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -1375,10 +1387,10 @@
       <c r="H5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>119.83960999999999</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>31.713719999999999</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -1519,10 +1531,10 @@
       <c r="H6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>119.83960999999999</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>31.713719999999999</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -1663,10 +1675,10 @@
       <c r="H7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>119.83960999999999</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>31.713719999999999</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -1807,10 +1819,10 @@
       <c r="H8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>119.83253999999999</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>31.705719999999999</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -1951,10 +1963,10 @@
       <c r="H9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>119.83253999999999</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>31.705719999999999</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -2078,13 +2090,13 @@
         <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>81</v>
@@ -2093,13 +2105,13 @@
         <v>81</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="1">
-        <v>119.83516</v>
-      </c>
-      <c r="J10" s="1">
-        <v>31.724139999999998</v>
+        <v>91</v>
+      </c>
+      <c r="I10" s="2">
+        <v>119.83253999999999</v>
+      </c>
+      <c r="J10" s="2">
+        <v>31.705719999999999</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>58</v>
@@ -2111,7 +2123,7 @@
         <v>10538111</v>
       </c>
       <c r="N10" s="1">
-        <v>43164102664</v>
+        <v>43164102670</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>59</v>
@@ -2132,14 +2144,14 @@
         <v>62</v>
       </c>
       <c r="U10" s="1">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="X10" s="1">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="Y10" s="1">
         <v>8768</v>
@@ -2161,7 +2173,7 @@
         <v>120</v>
       </c>
       <c r="AF10" s="1">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AG10" s="1">
         <v>-20</v>
@@ -2211,7 +2223,7 @@
         <v>219226970801</v>
       </c>
       <c r="AZ10" s="1">
-        <v>219479119045</v>
+        <v>219479119003</v>
       </c>
     </row>
     <row r="11" spans="1:52" ht="28" x14ac:dyDescent="0.25">
@@ -2222,13 +2234,13 @@
         <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>81</v>
@@ -2239,10 +2251,10 @@
       <c r="H11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>119.83516</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>31.724139999999998</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -2255,7 +2267,7 @@
         <v>10538111</v>
       </c>
       <c r="N11" s="1">
-        <v>43164102665</v>
+        <v>43164102664</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>59</v>
@@ -2276,14 +2288,14 @@
         <v>62</v>
       </c>
       <c r="U11" s="1">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X11" s="1">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="Y11" s="1">
         <v>8768</v>
@@ -2302,7 +2314,7 @@
         <v>66</v>
       </c>
       <c r="AE11" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AF11" s="1">
         <v>32</v>
@@ -2355,7 +2367,7 @@
         <v>219226970801</v>
       </c>
       <c r="AZ11" s="1">
-        <v>219479186318</v>
+        <v>219479119045</v>
       </c>
     </row>
     <row r="12" spans="1:52" ht="28" x14ac:dyDescent="0.25">
@@ -2366,13 +2378,13 @@
         <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>81</v>
@@ -2381,13 +2393,13 @@
         <v>81</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="1">
-        <v>119.83253999999999</v>
-      </c>
-      <c r="J12" s="1">
-        <v>31.705719999999999</v>
+        <v>96</v>
+      </c>
+      <c r="I12" s="4">
+        <v>119.83516</v>
+      </c>
+      <c r="J12" s="4">
+        <v>31.724139999999998</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>58</v>
@@ -2399,7 +2411,7 @@
         <v>10538111</v>
       </c>
       <c r="N12" s="1">
-        <v>43164102670</v>
+        <v>43164102665</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>59</v>
@@ -2420,14 +2432,14 @@
         <v>62</v>
       </c>
       <c r="U12" s="1">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="X12" s="1">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="Y12" s="1">
         <v>8768</v>
@@ -2446,10 +2458,10 @@
         <v>66</v>
       </c>
       <c r="AE12" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AF12" s="1">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AG12" s="1">
         <v>-20</v>
@@ -2499,7 +2511,7 @@
         <v>219226970801</v>
       </c>
       <c r="AZ12" s="1">
-        <v>219479119003</v>
+        <v>219479186318</v>
       </c>
     </row>
     <row r="13" spans="1:52" ht="28" x14ac:dyDescent="0.25">
@@ -2527,10 +2539,10 @@
       <c r="H13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>119.83516</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>31.724139999999998</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -2671,10 +2683,10 @@
       <c r="H14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="2">
         <v>119.84495</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="2">
         <v>31.72475</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -2815,10 +2827,10 @@
       <c r="H15" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <v>119.84495</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="2">
         <v>31.72475</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -2959,10 +2971,10 @@
       <c r="H16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="2">
         <v>119.84495</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>31.72475</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -3103,10 +3115,10 @@
       <c r="H17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="4">
         <v>119.82407000000001</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>31.712070000000001</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -3247,10 +3259,10 @@
       <c r="H18" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>119.82407000000001</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>31.712070000000001</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -3391,10 +3403,10 @@
       <c r="H19" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>119.82407000000001</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>31.712070000000001</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -3535,10 +3547,10 @@
       <c r="H20" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="2">
         <v>119.84732</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="2">
         <v>31.716619999999999</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -3679,10 +3691,10 @@
       <c r="H21" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="2">
         <v>119.84732</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="2">
         <v>31.716619999999999</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -3823,10 +3835,10 @@
       <c r="H22" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="2">
         <v>119.84732</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="2">
         <v>31.716619999999999</v>
       </c>
       <c r="K22" s="1" t="s">
